--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8932607D-7BAA-4664-9FD4-2B12A3653F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2A664-CEBF-4F98-8C37-405C32BC8D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="3420" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8055" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,7 +1554,10 @@
         <v>45382</v>
       </c>
       <c r="B106">
-        <v>205.48</v>
+        <v>203.05</v>
+      </c>
+      <c r="C106">
+        <v>227.64330000000001</v>
       </c>
     </row>
   </sheetData>

--- a/veri.xlsx
+++ b/veri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bora\Documents\GitHub\BuyumeTahmin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD2A664-CEBF-4F98-8C37-405C32BC8D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27221018-BCBB-4377-9EF8-F9839DEC936A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8055" yWindow="2940" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,1165 +400,861 @@
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>35885</v>
       </c>
       <c r="B2">
         <v>63.325286034400648</v>
       </c>
-      <c r="C2">
-        <v>71.633276779798763</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>35976</v>
       </c>
       <c r="B3">
         <v>69.25941218866177</v>
       </c>
-      <c r="C3">
-        <v>71.062686955456059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>36068</v>
       </c>
       <c r="B4">
         <v>76.951108343904764</v>
       </c>
-      <c r="C4">
-        <v>70.062781726311329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>36160</v>
       </c>
       <c r="B5">
         <v>73.119999759017219</v>
       </c>
-      <c r="C5">
-        <v>69.881537612270307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>36250</v>
       </c>
       <c r="B6">
         <v>60.555432356779562</v>
       </c>
-      <c r="C6">
-        <v>68.703460521799954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>36341</v>
       </c>
       <c r="B7">
         <v>66.59554699700081</v>
       </c>
-      <c r="C7">
-        <v>68.316168351013943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>36433</v>
       </c>
       <c r="B8">
         <v>73.871799739739572</v>
       </c>
-      <c r="C8">
-        <v>67.163935520247165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>36525</v>
       </c>
       <c r="B9">
         <v>72.352678385756562</v>
       </c>
-      <c r="C9">
-        <v>69.170404559319621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>36616</v>
       </c>
       <c r="B10">
         <v>62.482448421348828</v>
       </c>
-      <c r="C10">
-        <v>70.259735627536216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>36707</v>
       </c>
       <c r="B11">
         <v>71.205027227410611</v>
       </c>
-      <c r="C11">
-        <v>72.995207350660337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>36799</v>
       </c>
       <c r="B12">
         <v>80.226899643685186</v>
       </c>
-      <c r="C12">
-        <v>74.082336959033029</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>36891</v>
       </c>
       <c r="B13">
         <v>78.638208140444334</v>
       </c>
-      <c r="C13">
-        <v>75.146628563075708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>36981</v>
       </c>
       <c r="B14">
         <v>63.875576121238097</v>
       </c>
-      <c r="C14">
-        <v>71.295266445913029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>37072</v>
       </c>
       <c r="B15">
         <v>66.33382605567445</v>
       </c>
-      <c r="C15">
-        <v>67.841696139406992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>37164</v>
       </c>
       <c r="B16">
         <v>74.609811895679243</v>
       </c>
-      <c r="C16">
-        <v>68.69092884181461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>37256</v>
       </c>
       <c r="B17">
         <v>70.603571140900868</v>
       </c>
-      <c r="C17">
-        <v>67.534931764922987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>37346</v>
       </c>
       <c r="B18">
         <v>63.211904000000658</v>
       </c>
-      <c r="C18">
-        <v>70.086119556392603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>37437</v>
       </c>
       <c r="B19">
         <v>71.459970863650526</v>
       </c>
-      <c r="C19">
-        <v>73.111327649337369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>37529</v>
       </c>
       <c r="B20">
         <v>79.658376490297059</v>
       </c>
-      <c r="C20">
-        <v>74.110370566117496</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>37621</v>
       </c>
       <c r="B21">
         <v>78.735826402635652</v>
       </c>
-      <c r="C21">
-        <v>75.691615590791244</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>37711</v>
       </c>
       <c r="B22">
         <v>67.776421126748915</v>
       </c>
-      <c r="C22">
-        <v>75.754894309357155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>37802</v>
       </c>
       <c r="B23">
         <v>74.218900482171662</v>
       </c>
-      <c r="C23">
-        <v>76.009678457033814</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>37894</v>
       </c>
       <c r="B24">
         <v>84.2277814136811</v>
       </c>
-      <c r="C24">
-        <v>78.176875840243213</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>37986</v>
       </c>
       <c r="B25">
         <v>84.29542722456074</v>
       </c>
-      <c r="C25">
-        <v>80.540173019993674</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>38077</v>
       </c>
       <c r="B26">
         <v>74.626492776993175</v>
       </c>
-      <c r="C26">
-        <v>82.758477310068599</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>38168</v>
       </c>
       <c r="B27">
         <v>82.920992277623071</v>
       </c>
-      <c r="C27">
-        <v>84.685343674806873</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38260</v>
       </c>
       <c r="B28">
         <v>91.43399504486672</v>
       </c>
-      <c r="C28">
-        <v>85.640366147238041</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38352</v>
       </c>
       <c r="B29">
         <v>91.153804346139623</v>
       </c>
-      <c r="C29">
-        <v>87.029867963811881</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>38442</v>
       </c>
       <c r="B30">
         <v>81.938850344161892</v>
       </c>
-      <c r="C30">
-        <v>91.041902764259405</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>38533</v>
       </c>
       <c r="B31">
         <v>89.348379841337135</v>
       </c>
-      <c r="C31">
-        <v>91.426244775213135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>38625</v>
       </c>
       <c r="B32">
         <v>98.809133709901715</v>
       </c>
-      <c r="C32">
-        <v>92.717157076557129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>38717</v>
       </c>
       <c r="B33">
         <v>100.88060236496371</v>
       </c>
-      <c r="C33">
-        <v>95.783131873614295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>38807</v>
       </c>
       <c r="B34">
         <v>87.370123074524571</v>
       </c>
-      <c r="C34">
-        <v>96.879976382454075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>38898</v>
       </c>
       <c r="B35">
         <v>97.589059551908448</v>
       </c>
-      <c r="C35">
-        <v>99.831058749690143</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>38990</v>
       </c>
       <c r="B36">
         <v>104.8594949484297</v>
       </c>
-      <c r="C36">
-        <v>99.078845590750518</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>39082</v>
       </c>
       <c r="B37">
         <v>107.2835009831778</v>
       </c>
-      <c r="C37">
-        <v>101.31675236037709</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>39172</v>
       </c>
       <c r="B38">
         <v>93.672024518752707</v>
       </c>
-      <c r="C38">
-        <v>103.16383831581921</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>39263</v>
       </c>
       <c r="B39">
         <v>100.87539734862889</v>
       </c>
-      <c r="C39">
-        <v>103.1953399261706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39355</v>
       </c>
       <c r="B40">
         <v>108.80992598338079</v>
       </c>
-      <c r="C40">
-        <v>103.80047182540849</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39447</v>
       </c>
       <c r="B41">
         <v>114.162951680074</v>
       </c>
-      <c r="C41">
-        <v>107.363525855326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>39538</v>
       </c>
       <c r="B42">
         <v>99.49125061121147</v>
       </c>
-      <c r="C42">
-        <v>109.6251301049158</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
         <v>103.3496681127554</v>
       </c>
-      <c r="C43">
-        <v>105.73497425969281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>39721</v>
       </c>
       <c r="B44">
         <v>110.102998724636</v>
       </c>
-      <c r="C44">
-        <v>103.81390734834601</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>39813</v>
       </c>
       <c r="B45">
         <v>107.3989008598022</v>
       </c>
-      <c r="C45">
-        <v>101.1770013112624</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>39903</v>
       </c>
       <c r="B46">
         <v>85.480346758790944</v>
       </c>
-      <c r="C46">
-        <v>95.446316153482698</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>39994</v>
       </c>
       <c r="B47">
         <v>96.444992237142998</v>
       </c>
-      <c r="C47">
-        <v>99.270848263373168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>40086</v>
       </c>
       <c r="B48">
         <v>108.7271956911656</v>
       </c>
-      <c r="C48">
-        <v>101.6491406341889</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>40178</v>
       </c>
       <c r="B49">
         <v>109.3474653129004</v>
       </c>
-      <c r="C49">
-        <v>103.6336949489552</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>40268</v>
       </c>
       <c r="B50">
         <v>91.383842899050251</v>
       </c>
-      <c r="C50">
-        <v>103.32798069505139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>40359</v>
       </c>
       <c r="B51">
         <v>104.1555105887321</v>
       </c>
-      <c r="C51">
-        <v>107.255176902633</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>40451</v>
       </c>
       <c r="B52">
         <v>118.55470456364419</v>
       </c>
-      <c r="C52">
-        <v>110.226898024555</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>40543</v>
       </c>
       <c r="B53">
         <v>120.27526347208899</v>
       </c>
-      <c r="C53">
-        <v>113.55926590127621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>40633</v>
       </c>
       <c r="B54">
         <v>102.08343733560309</v>
       </c>
-      <c r="C54">
-        <v>116.1187306940044</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>40724</v>
       </c>
       <c r="B55">
         <v>115.9210462505072</v>
       </c>
-      <c r="C55">
-        <v>119.30931437603461</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>40816</v>
       </c>
       <c r="B56">
         <v>132.03440881660819</v>
       </c>
-      <c r="C56">
-        <v>122.48156190579211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>40908</v>
       </c>
       <c r="B57">
         <v>132.014733331261</v>
       </c>
-      <c r="C57">
-        <v>124.14401875814831</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>40999</v>
       </c>
       <c r="B58">
         <v>108.4940693185257</v>
       </c>
-      <c r="C58">
-        <v>123.0394179034503</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>41090</v>
       </c>
       <c r="B59">
         <v>122.02028668065419</v>
       </c>
-      <c r="C59">
-        <v>125.16495690444719</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>41182</v>
       </c>
       <c r="B60">
         <v>137.19152673654099</v>
       </c>
-      <c r="C60">
-        <v>127.3738603786685</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>41274</v>
       </c>
       <c r="B61">
         <v>137.2878780472189</v>
       </c>
-      <c r="C61">
-        <v>129.41552559637381</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>41364</v>
       </c>
       <c r="B62">
         <v>118.2127994657268</v>
       </c>
-      <c r="C62">
-        <v>133.20725248516959</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>41455</v>
       </c>
       <c r="B63">
         <v>133.7406732295735</v>
       </c>
-      <c r="C63">
-        <v>137.11791924834981</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>41547</v>
       </c>
       <c r="B64">
         <v>149.37544131725011</v>
       </c>
-      <c r="C64">
-        <v>139.1280352427664</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>41639</v>
       </c>
       <c r="B65">
         <v>147.52199934431249</v>
       </c>
-      <c r="C65">
-        <v>139.39770638057701</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>41729</v>
       </c>
       <c r="B66">
         <v>128.34579151984869</v>
       </c>
-      <c r="C66">
-        <v>143.44173930590719</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>41820</v>
       </c>
       <c r="B67">
         <v>137.71860211712871</v>
       </c>
-      <c r="C67">
-        <v>141.11453156412861</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>41912</v>
       </c>
       <c r="B68">
         <v>154.36625276238331</v>
       </c>
-      <c r="C68">
-        <v>144.5833869963007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42004</v>
       </c>
       <c r="B69">
         <v>155.24074546739769</v>
       </c>
-      <c r="C69">
-        <v>146.53173400042201</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42094</v>
       </c>
       <c r="B70">
         <v>132.8897108908597</v>
       </c>
-      <c r="C70">
-        <v>149.30228238487649</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42185</v>
       </c>
       <c r="B71">
         <v>147.58940638116729</v>
       </c>
-      <c r="C71">
-        <v>151.577304909427</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42277</v>
       </c>
       <c r="B72">
         <v>164.55022560510511</v>
       </c>
-      <c r="C72">
-        <v>153.70168188658701</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42369</v>
       </c>
       <c r="B73">
         <v>165.04710215400189</v>
       </c>
-      <c r="C73">
-        <v>155.49517585024341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42460</v>
       </c>
       <c r="B74">
         <v>139.00865375678711</v>
       </c>
-      <c r="C74">
-        <v>156.05734999706959</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42551</v>
       </c>
       <c r="B75">
         <v>154.58620691177839</v>
       </c>
-      <c r="C75">
-        <v>158.29035341732961</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42643</v>
       </c>
       <c r="B76">
         <v>164.36558572871479</v>
       </c>
-      <c r="C76">
-        <v>153.7511029602021</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42735</v>
       </c>
       <c r="B77">
         <v>172.36055160953819</v>
       </c>
-      <c r="C77">
-        <v>162.2221916322172</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42825</v>
       </c>
       <c r="B78">
         <v>146.48334110820949</v>
       </c>
-      <c r="C78">
-        <v>164.44279485611031</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42916</v>
       </c>
       <c r="B79">
         <v>164.35813244306721</v>
       </c>
-      <c r="C79">
-        <v>168.1926148578753</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43008</v>
       </c>
       <c r="B80">
         <v>181.65898879144339</v>
       </c>
-      <c r="C80">
-        <v>170.7422779193698</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43100</v>
       </c>
       <c r="B81">
         <v>184.8341724545453</v>
       </c>
-      <c r="C81">
-        <v>173.95694716391009</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43190</v>
       </c>
       <c r="B82">
         <v>157.500637313938</v>
       </c>
-      <c r="C82">
-        <v>176.161482755908</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43281</v>
       </c>
       <c r="B83">
         <v>174.130383002022</v>
       </c>
-      <c r="C83">
-        <v>177.19819101984501</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43373</v>
       </c>
       <c r="B84">
         <v>186.739887218886</v>
       </c>
-      <c r="C84">
-        <v>175.49505033472201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43465</v>
       </c>
       <c r="B85">
         <v>179.92606380140299</v>
       </c>
-      <c r="C85">
-        <v>169.442247225773</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43555</v>
       </c>
       <c r="B86">
         <v>153.97171940234199</v>
       </c>
-      <c r="C86">
-        <v>172.09092500271399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43646</v>
       </c>
       <c r="B87">
         <v>171.497081519425</v>
       </c>
-      <c r="C87">
-        <v>175.999535434216</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43738</v>
       </c>
       <c r="B88">
         <v>188.03979222784099</v>
       </c>
-      <c r="C88">
-        <v>176.93368567497399</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43830</v>
       </c>
       <c r="B89">
         <v>190.81179446699699</v>
       </c>
-      <c r="C89">
-        <v>179.29624150469999</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43921</v>
       </c>
       <c r="B90">
         <v>160.03737665513501</v>
       </c>
-      <c r="C90">
-        <v>179.613786497468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>44012</v>
       </c>
       <c r="B91">
         <v>153.662633739466</v>
       </c>
-      <c r="C91">
-        <v>160.37115394186301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>44104</v>
       </c>
       <c r="B92">
         <v>199.552212951017</v>
       </c>
-      <c r="C92">
-        <v>186.69075356808901</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>44196</v>
       </c>
       <c r="B93">
         <v>202.849821279564</v>
       </c>
-      <c r="C93">
-        <v>189.42635061776099</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>44286</v>
       </c>
       <c r="B94">
         <v>172.640972196646</v>
       </c>
-      <c r="C94">
-        <v>193.27918041703199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>44377</v>
       </c>
       <c r="B95">
         <v>188.538507881138</v>
       </c>
-      <c r="C95">
-        <v>196.58856967897401</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>44469</v>
       </c>
       <c r="B96">
         <v>216.857019545573</v>
       </c>
-      <c r="C96">
-        <v>203.75914327371899</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>44561</v>
       </c>
       <c r="B97">
         <v>222.54235777441301</v>
       </c>
-      <c r="C97">
-        <v>206.95196402804399</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>44651</v>
       </c>
       <c r="B98">
         <v>185.987512164283</v>
       </c>
-      <c r="C98">
-        <v>207.392221054358</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>44742</v>
       </c>
       <c r="B99">
         <v>202.038020266188</v>
       </c>
-      <c r="C99">
-        <v>210.32557464202699</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>44834</v>
       </c>
       <c r="B100">
         <v>225.14638848143599</v>
       </c>
-      <c r="C100">
-        <v>211.46597384222201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>44926</v>
       </c>
       <c r="B101">
         <v>229.90660040415801</v>
       </c>
-      <c r="C101">
-        <v>213.894751777458</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45016</v>
       </c>
       <c r="B102">
-        <v>192.75452276514599</v>
-      </c>
-      <c r="C102">
-        <v>213.5468790302873</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>193.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45107</v>
       </c>
       <c r="B103">
-        <v>212.13361399824501</v>
-      </c>
-      <c r="C103">
-        <v>221.25361335660881</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>213.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45199</v>
       </c>
       <c r="B104">
-        <v>236.89838313460089</v>
-      </c>
-      <c r="C104">
-        <v>221.94379944588641</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>237.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45291</v>
       </c>
       <c r="B105">
-        <v>239.01613919802651</v>
-      </c>
-      <c r="C105">
-        <v>224.05836726323639</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>240.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>45382</v>
       </c>
       <c r="B106">
-        <v>203.05</v>
-      </c>
-      <c r="C106">
-        <v>227.64330000000001</v>
-      </c>
+        <v>204.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>45473</v>
+      </c>
+      <c r="B107">
+        <v>219.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
